--- a/Database/WorldsMatches.xlsx
+++ b/Database/WorldsMatches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dudu\Documents\Trabalhos do Dudu\Projects\8º Semestre\Aplicação de ML e DM\League-of-Legends-World-s-predictor\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B08F199-F7AE-4071-9E76-C70C3F6A6FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255F13-E239-4E80-BF7C-61059D86F0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldsMatches" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
   <si>
     <t>Azul</t>
   </si>
@@ -88,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,8 +574,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -922,10 +931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -948,10 +959,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -965,10 +976,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -982,10 +993,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -998,14 +1009,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1016,10 +1027,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1033,10 +1044,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1050,10 +1061,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1067,10 +1078,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1084,16 +1095,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1101,16 +1112,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1118,7 +1129,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1127,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1135,16 +1146,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1152,16 +1163,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1169,16 +1180,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1186,16 +1197,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1203,16 +1214,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1220,10 +1231,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1237,13 +1248,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1254,13 +1265,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1271,10 +1282,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1288,16 +1299,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1305,16 +1316,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1322,16 +1333,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1339,10 +1350,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1351,50 +1362,50 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -1402,12 +1413,12 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1424,10 +1435,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1441,13 +1452,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1458,10 +1469,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1475,13 +1486,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1492,10 +1503,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1509,13 +1520,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1526,7 +1537,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1543,10 +1554,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1560,13 +1571,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1577,10 +1588,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1594,10 +1605,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1611,13 +1622,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1631,10 +1642,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1645,13 +1656,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1662,10 +1673,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1679,13 +1690,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1696,10 +1707,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1713,10 +1724,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
         <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1730,13 +1741,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1750,10 +1761,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1764,10 +1775,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1781,22 +1792,91 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/WorldsMatches.xlsx
+++ b/Database/WorldsMatches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dudu\Documents\Trabalhos do Dudu\Projects\8º Semestre\Aplicação de ML e DM\League-of-Legends-World-s-predictor\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255F13-E239-4E80-BF7C-61059D86F0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9562D-F805-4994-91D9-947E61905ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="21">
   <si>
     <t>Azul</t>
   </si>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -574,9 +580,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,6 +1885,382 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
